--- a/Data/t11.2.xlsx
+++ b/Data/t11.2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wagner Nobrega\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{75951F90-51FA-4EAE-9094-4B5DCEF4AD2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E53F484-060B-4D6D-A05E-5687A398AC46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{040F1B4B-843A-46C5-8C55-A92B4A8214B0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{67B6E381-0480-4D65-BE41-93F828228547}"/>
   </bookViews>
   <sheets>
     <sheet name="t11.2" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>ANO</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -402,11 +405,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A11C6FD4-55A9-4151-9916-DD028F13CE3F}">
-  <dimension ref="A1:I23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C440D02-DF9A-4B5D-8216-78407EFA66A8}">
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection sqref="A1:I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -442,640 +445,611 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="B2">
-        <v>233978665.13071054</v>
+        <v>-22.385839805274198</v>
       </c>
       <c r="C2">
-        <v>331735153.15636051</v>
+        <v>9.2603186402582018</v>
       </c>
       <c r="D2">
-        <v>19679446.858935796</v>
+        <v>14.954083940473083</v>
       </c>
       <c r="E2">
-        <v>223868671.39067972</v>
+        <v>2.3873272486277575</v>
       </c>
       <c r="F2">
-        <v>203042293.67700469</v>
+        <v>-37.662446672212425</v>
       </c>
       <c r="G2">
-        <v>4174085.1177283889</v>
+        <v>131.80246779981033</v>
       </c>
       <c r="H2">
-        <v>9409501.8221965265</v>
+        <v>-7.9143785445388026</v>
       </c>
       <c r="I2">
-        <v>1012304230.2136912</v>
+        <v>-8.8749697009830051</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="B3">
-        <v>181600575.97603071</v>
+        <v>21.114475382626964</v>
       </c>
       <c r="C3">
-        <v>362454885.38038802</v>
+        <v>9.2439699782845164</v>
       </c>
       <c r="D3">
-        <v>22622327.861241847</v>
+        <v>19.822242732639616</v>
       </c>
       <c r="E3">
-        <v>229213149.18393037</v>
+        <v>-71.815596323481017</v>
       </c>
       <c r="F3">
-        <v>126571598.09886587</v>
+        <v>409.76452479925882</v>
       </c>
       <c r="G3">
-        <v>9675632.3109590244</v>
+        <v>1149.8301898139089</v>
       </c>
       <c r="H3">
-        <v>8664798.2288326174</v>
+        <v>327.32329405592128</v>
       </c>
       <c r="I3">
-        <v>922462536.50045693</v>
+        <v>46.654274071015102</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="B4">
-        <v>219944584.88519847</v>
+        <v>43.182225331122922</v>
       </c>
       <c r="C4">
-        <v>395960106.16977668</v>
+        <v>12.422991544721818</v>
       </c>
       <c r="D4">
-        <v>27106580.601670768</v>
+        <v>145.51136896807009</v>
       </c>
       <c r="E4">
-        <v>64602359.245660588</v>
+        <v>-68.356303257987975</v>
       </c>
       <c r="F4">
-        <v>645217105.57951128</v>
+        <v>28.173654920046975</v>
       </c>
       <c r="G4">
-        <v>120928973.67775507</v>
+        <v>29.387731767407054</v>
       </c>
       <c r="H4">
-        <v>37026701.214746661</v>
+        <v>-99.917476977043478</v>
       </c>
       <c r="I4">
-        <v>1352830736.4818177</v>
+        <v>23.745148659270001</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="B5">
-        <v>314921551.13392782</v>
+        <v>1.2287404158958015</v>
       </c>
       <c r="C5">
-        <v>445150196.67971957</v>
+        <v>21.83023966606601</v>
       </c>
       <c r="D5">
-        <v>66549737.115595236</v>
+        <v>-29.134586891372017</v>
       </c>
       <c r="E5">
-        <v>20442574.647882007</v>
+        <v>1232.1819603235679</v>
       </c>
       <c r="F5">
-        <v>826998346.39059794</v>
+        <v>-74.12778066924966</v>
       </c>
       <c r="G5">
-        <v>156467256.09125203</v>
-      </c>
-      <c r="H5">
-        <v>30555.553143488232</v>
+        <v>94.85649407070072</v>
+      </c>
+      <c r="H5" t="s">
+        <v>9</v>
       </c>
       <c r="I5">
-        <v>1674062405.9677224</v>
+        <v>-16.695188310612984</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="B6">
-        <v>318791119.51107639</v>
+        <v>8.7442263739687895</v>
       </c>
       <c r="C6">
-        <v>542327551.48886657</v>
+        <v>-5.3900352548983843</v>
       </c>
       <c r="D6">
-        <v>47160746.12967249</v>
+        <v>-19.025904057174202</v>
       </c>
       <c r="E6">
-        <v>272332291.68476325</v>
+        <v>21.963731344983749</v>
       </c>
       <c r="F6">
-        <v>213962826.03985402</v>
+        <v>0.76629024777563615</v>
       </c>
       <c r="G6">
-        <v>304886609.58803862</v>
+        <v>-97.098284268128864</v>
       </c>
       <c r="H6">
-        <v>36180851.624496676</v>
+        <v>-8.7824427786134756</v>
       </c>
       <c r="I6">
-        <v>1394574534.8542328</v>
+        <v>3.6660157288067152</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="B7">
-        <v>346666936.66123426</v>
+        <v>9.7650286850176737</v>
       </c>
       <c r="C7">
-        <v>513095905.26658946</v>
+        <v>4.7904909817143126</v>
       </c>
       <c r="D7">
-        <v>38187987.818393506</v>
+        <v>12.53670027258087</v>
       </c>
       <c r="E7">
-        <v>332146624.59604216</v>
+        <v>6.9380172169372978</v>
       </c>
       <c r="F7">
-        <v>215602402.30966258</v>
+        <v>-2.1202467170273298</v>
       </c>
       <c r="G7">
-        <v>8846942.714784639</v>
+        <v>74.496830320100145</v>
       </c>
       <c r="H7">
-        <v>33003289.033760212</v>
+        <v>13.169589571007535</v>
       </c>
       <c r="I7">
-        <v>1445699856.651922</v>
+        <v>5.6507261321199875</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B8">
-        <v>380519062.46767581</v>
+        <v>11.426940125995699</v>
       </c>
       <c r="C8">
-        <v>537675718.33593082</v>
+        <v>5.833801714606146</v>
       </c>
       <c r="D8">
-        <v>42975501.391315192</v>
+        <v>29.189303582080917</v>
       </c>
       <c r="E8">
-        <v>355191014.59599167</v>
+        <v>-3.0431472113520486</v>
       </c>
       <c r="F8">
-        <v>211031099.45285991</v>
+        <v>-22.716336551199646</v>
       </c>
       <c r="G8">
-        <v>15437634.617534213</v>
+        <v>-50.393422220465879</v>
       </c>
       <c r="H8">
-        <v>37349686.744439773</v>
+        <v>26.114779710459256</v>
       </c>
       <c r="I8">
-        <v>1527392396.2437735</v>
+        <v>1.8754414460817381</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B9">
-        <v>424000747.90385729</v>
+        <v>17.093975538967921</v>
       </c>
       <c r="C9">
-        <v>569042653.61123323</v>
+        <v>40.238473949626027</v>
       </c>
       <c r="D9">
-        <v>55519750.958347589</v>
+        <v>1.0429042330415639</v>
       </c>
       <c r="E9">
-        <v>344382029.14034069</v>
+        <v>2.5458731551389224</v>
       </c>
       <c r="F9">
-        <v>163092564.67345142</v>
+        <v>2.5231548646748037</v>
       </c>
       <c r="G9">
-        <v>7658082.223867395</v>
+        <v>-99.974945001688411</v>
       </c>
       <c r="H9">
-        <v>47103475.16029682</v>
+        <v>-0.57123164564236717</v>
       </c>
       <c r="I9">
-        <v>1556037746.2872303</v>
+        <v>20.238216602530869</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B10">
-        <v>496479332.03558373</v>
+        <v>5.6076524400949568</v>
       </c>
       <c r="C10">
-        <v>798016733.54684997</v>
+        <v>6.0935625969827267</v>
       </c>
       <c r="D10">
-        <v>56098768.79126633</v>
+        <v>-0.83415743431578537</v>
       </c>
       <c r="E10">
-        <v>353149558.77134728</v>
+        <v>2.1979525682162437</v>
       </c>
       <c r="F10">
-        <v>167207642.65293252</v>
-      </c>
-      <c r="G10">
-        <v>1918.7323718901482</v>
+        <v>70.000994707275225</v>
+      </c>
+      <c r="G10" t="s">
+        <v>9</v>
       </c>
       <c r="H10">
-        <v>46834405.20398391</v>
+        <v>7.8590308793093033</v>
       </c>
       <c r="I10">
-        <v>1870952035.7979796</v>
+        <v>10.733017285221514</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B11">
-        <v>524320167.41304427</v>
+        <v>3.7933974584225538E-2</v>
       </c>
       <c r="C11">
-        <v>846644382.73992407</v>
+        <v>7.1777907518893347</v>
       </c>
       <c r="D11">
-        <v>55630816.740834355</v>
+        <v>-1.8934740050543963</v>
       </c>
       <c r="E11">
-        <v>360911618.56800646</v>
+        <v>5.8182612285416546</v>
       </c>
       <c r="F11">
-        <v>284254655.73657149</v>
+        <v>-32.523727770598065</v>
       </c>
       <c r="G11">
-        <v>23523707.516542159</v>
+        <v>23.018467490521388</v>
       </c>
       <c r="H11">
-        <v>50515135.571105845</v>
+        <v>-17.809975639150011</v>
       </c>
       <c r="I11">
-        <v>2071761641.1983807</v>
+        <v>-0.55679798168963845</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B12">
-        <v>524519062.89209074</v>
+        <v>5.5017854241490083</v>
       </c>
       <c r="C12">
-        <v>907414744.94562089</v>
+        <v>-10.653822785987133</v>
       </c>
       <c r="D12">
-        <v>54577461.687047206</v>
+        <v>-5.052178173926702</v>
       </c>
       <c r="E12">
-        <v>381910399.34045088</v>
+        <v>1.1001059591388307</v>
       </c>
       <c r="F12">
-        <v>191804445.32955825</v>
+        <v>3.0269421172712363</v>
       </c>
       <c r="G12">
-        <v>28938504.483802751</v>
+        <v>7.7796436384257373</v>
       </c>
       <c r="H12">
-        <v>41518402.23180829</v>
+        <v>-20.553987932815289</v>
       </c>
       <c r="I12">
-        <v>2060226114.194768</v>
+        <v>-2.9398019518870888</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B13">
-        <v>553376976.24117076</v>
+        <v>1.4172464954842479</v>
       </c>
       <c r="C13">
-        <v>810740386.08519733</v>
+        <v>4.591953361346568</v>
       </c>
       <c r="D13">
-        <v>51820111.079810999</v>
+        <v>-0.69087327871165671</v>
       </c>
       <c r="E13">
-        <v>386111818.40216613</v>
+        <v>-8.7302493009758226</v>
       </c>
       <c r="F13">
-        <v>197610254.86803713</v>
+        <v>-20.420474315066571</v>
       </c>
       <c r="G13">
-        <v>31189817.00693246</v>
+        <v>-8.7260252866161565</v>
       </c>
       <c r="H13">
-        <v>32984714.847184699</v>
+        <v>-15.609979096097037</v>
       </c>
       <c r="I13">
-        <v>1999659546.6763825</v>
+        <v>-1.4676473703888915</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B14">
-        <v>561219692.04376543</v>
+        <v>-6.7066481104024245</v>
       </c>
       <c r="C14">
-        <v>847969206.49583066</v>
+        <v>-18.547082361468803</v>
       </c>
       <c r="D14">
-        <v>51462099.779361889</v>
+        <v>-6.744644356555507</v>
       </c>
       <c r="E14">
-        <v>352403294.07512599</v>
+        <v>-9.4442500277878594</v>
       </c>
       <c r="F14">
-        <v>157257303.52877203</v>
+        <v>41.401598569669098</v>
       </c>
       <c r="G14">
-        <v>28468185.688058227</v>
+        <v>10.403799081898569</v>
       </c>
       <c r="H14">
-        <v>27835807.754631951</v>
+        <v>22.262826999968176</v>
       </c>
       <c r="I14">
-        <v>1970311595.9228561</v>
+        <v>-8.4534001435952142</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B15">
-        <v>523580662.17210591</v>
+        <v>5.0868525323150227</v>
       </c>
       <c r="C15">
-        <v>690695659.36715543</v>
+        <v>-26.316075234334079</v>
       </c>
       <c r="D15">
-        <v>47991164.170828193</v>
+        <v>-0.86357487054186111</v>
       </c>
       <c r="E15">
-        <v>319121445.87651056</v>
+        <v>1.5933051991474656</v>
       </c>
       <c r="F15">
-        <v>222364341.05724031</v>
+        <v>51.007190235015543</v>
       </c>
       <c r="G15">
-        <v>31429958.529305611</v>
+        <v>-1.7256676403272553</v>
       </c>
       <c r="H15">
-        <v>34032845.479089387</v>
+        <v>14.708363135761848</v>
       </c>
       <c r="I15">
-        <v>1803753272.6438403</v>
+        <v>-2.0534001149640435</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B16">
-        <v>550214438.3445195</v>
+        <v>4.836710328016558</v>
       </c>
       <c r="C16">
-        <v>508931670.00781494</v>
+        <v>13.877031874092305</v>
       </c>
       <c r="D16">
-        <v>47576724.536968432</v>
+        <v>5.074170390703614</v>
       </c>
       <c r="E16">
-        <v>324206024.46525556</v>
+        <v>-4.1938469448560278</v>
       </c>
       <c r="F16">
-        <v>335786143.51514566</v>
+        <v>-0.1927224985693865</v>
       </c>
       <c r="G16">
-        <v>30887581.905597109</v>
+        <v>5.5633593564111905</v>
       </c>
       <c r="H16">
-        <v>39038519.97758656</v>
+        <v>-20.128763147442687</v>
       </c>
       <c r="I16">
-        <v>1766715000.869704</v>
+        <v>4.8342380071453972</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B17">
-        <v>576826716.91016722</v>
+        <v>4.024003573824908</v>
       </c>
       <c r="C17">
-        <v>579556280.07214963</v>
+        <v>-4.0221664623212199</v>
       </c>
       <c r="D17">
-        <v>49990848.606289908</v>
+        <v>18.723798651272428</v>
       </c>
       <c r="E17">
-        <v>310609320.01318026</v>
+        <v>-17.365704431327657</v>
       </c>
       <c r="F17">
-        <v>335139008.0695135</v>
+        <v>-1.5906640669415606</v>
       </c>
       <c r="G17">
-        <v>32605969.083511315</v>
+        <v>2.6681716367631614</v>
       </c>
       <c r="H17">
-        <v>31180548.755031068</v>
+        <v>39.004405147659881</v>
       </c>
       <c r="I17">
-        <v>1852122208.9196866</v>
+        <v>-2.7001156815860683</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B18">
-        <v>600038244.61340928</v>
+        <v>1.4693904127345947</v>
       </c>
       <c r="C18">
-        <v>556245561.74481118</v>
+        <v>3.4104839329791581</v>
       </c>
       <c r="D18">
-        <v>59351034.443394057</v>
+        <v>9.262331720820228</v>
       </c>
       <c r="E18">
-        <v>256669823.56353471</v>
+        <v>-11.894857852363627</v>
       </c>
       <c r="F18">
-        <v>329808072.29384738</v>
+        <v>-11.614068249684006</v>
       </c>
       <c r="G18">
-        <v>33475952.302489329</v>
+        <v>-12.058649059527193</v>
       </c>
       <c r="H18">
-        <v>43342336.318707004</v>
+        <v>3.2210663880971602</v>
       </c>
       <c r="I18">
-        <v>1802112766.7145078</v>
+        <v>-1.9726738289750689</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B19">
-        <v>608855149.05249965</v>
+        <v>12.114229720561575</v>
       </c>
       <c r="C19">
-        <v>575216227.25602758</v>
+        <v>-11.382717198232539</v>
       </c>
       <c r="D19">
-        <v>64848324.13327948</v>
+        <v>3.5780148003290213</v>
       </c>
       <c r="E19">
-        <v>226139312.90073973</v>
+        <v>-3.8473115346673747</v>
       </c>
       <c r="F19">
-        <v>291503937.68467277</v>
+        <v>5.8026948396254996</v>
       </c>
       <c r="G19">
-        <v>29439204.694997426</v>
+        <v>12.121071464460442</v>
       </c>
       <c r="H19">
-        <v>44738421.745684899</v>
+        <v>19.113815485362263</v>
       </c>
       <c r="I19">
-        <v>1766562959.7969122</v>
+        <v>1.0652294522354167</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B20">
-        <v>682613260.47418702</v>
+        <v>14.930988249598576</v>
       </c>
       <c r="C20">
-        <v>509740990.82913136</v>
+        <v>11.572202695009469</v>
       </c>
       <c r="D20">
-        <v>67168606.768533558</v>
+        <v>14.605859836417622</v>
       </c>
       <c r="E20">
-        <v>217439029.03109202</v>
+        <v>-6.7563351590502529</v>
       </c>
       <c r="F20">
-        <v>308419021.63400644</v>
+        <v>12.992686582931201</v>
       </c>
       <c r="G20">
-        <v>33007551.734646857</v>
+        <v>-13.515223422290445</v>
       </c>
       <c r="H20">
-        <v>53289641.129218295</v>
+        <v>40.011753552481764</v>
       </c>
       <c r="I20">
-        <v>1785380908.7369506</v>
+        <v>10.983691226005021</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B21">
-        <v>784534166.18578959</v>
+        <v>8.5320655032458568</v>
       </c>
       <c r="C21">
-        <v>568729251.50742805</v>
+        <v>0.60545028858061123</v>
       </c>
       <c r="D21">
-        <v>76979159.327220082</v>
+        <v>7.6822467147618978</v>
       </c>
       <c r="E21">
-        <v>202748119.46316686</v>
+        <v>-20.425447152621157</v>
       </c>
       <c r="F21">
-        <v>348490938.47705567</v>
+        <v>28.880669369150034</v>
       </c>
       <c r="G21">
-        <v>28546507.371481229</v>
+        <v>47.239280579476485</v>
       </c>
       <c r="H21">
-        <v>74611761.006843075</v>
+        <v>-25.594183192041719</v>
       </c>
       <c r="I21">
-        <v>1981481634.96066</v>
+        <v>6.8397493130987863</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B22">
-        <v>851471135.14010477</v>
+        <v>-51.383979806680514</v>
       </c>
       <c r="C22">
-        <v>572172624.40192211</v>
+        <v>-56.80633458157287</v>
       </c>
       <c r="D22">
-        <v>82892888.26568678</v>
+        <v>-52.815975147785551</v>
       </c>
       <c r="E22">
-        <v>161335909.4692845</v>
+        <v>-67.782323122617768</v>
       </c>
       <c r="F22">
-        <v>449137454.20006216</v>
+        <v>-55.910515333732633</v>
       </c>
       <c r="G22">
-        <v>42031672.084336184</v>
+        <v>-58.596883880607486</v>
       </c>
       <c r="H22">
-        <v>55515490.211943306</v>
+        <v>-44.206694596859677</v>
       </c>
       <c r="I22">
-        <v>2117010011.4770603</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>2023</v>
-      </c>
-      <c r="B23">
-        <v>413951379</v>
-      </c>
-      <c r="C23">
-        <v>247142329</v>
-      </c>
-      <c r="D23">
-        <v>39112201</v>
-      </c>
-      <c r="E23">
-        <v>51978682</v>
-      </c>
-      <c r="F23">
-        <v>198022389</v>
-      </c>
-      <c r="G23">
-        <v>17402422</v>
-      </c>
-      <c r="H23">
-        <v>30973927</v>
-      </c>
-      <c r="I23">
-        <v>950206980.00000012</v>
+        <v>-55.115612356644895</v>
       </c>
     </row>
   </sheetData>

--- a/Data/t11.2.xlsx
+++ b/Data/t11.2.xlsx
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Ano</t>
+          <t>ANO</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">

--- a/Data/t11.2.xlsx
+++ b/Data/t11.2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,6 +450,2359 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2003</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Comércio Atacadista</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>-22.38583980527421</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2004</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Comércio Atacadista</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>21.1144753826271</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2005</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Comércio Atacadista</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>43.1822253311229</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2006</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Comércio Atacadista</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1.228740415895846</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2007</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Comércio Atacadista</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>8.744226373968766</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2008</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Comércio Atacadista</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>9.765028685017651</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2009</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Comércio Atacadista</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>11.4269401259957</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Comércio Atacadista</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>17.0939755389679</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Comércio Atacadista</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>5.607652440094979</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2012</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Comércio Atacadista</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0.03793397458422554</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Comércio Atacadista</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>5.50178542414903</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Comércio Atacadista</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>1.417246495484181</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Comércio Atacadista</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>-6.706648110402435</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Comércio Atacadista</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>5.086852532315045</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Comércio Atacadista</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>4.836710328016602</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Comércio Atacadista</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>4.024003573824886</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Comércio Atacadista</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>1.469390412734572</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Comércio Atacadista</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>12.11422972056164</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Comércio Atacadista</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>14.93098824959858</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Comércio Atacadista</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>8.532065503245834</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Comércio Atacadista</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>28.021796461564</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Comércio Atacadista</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>14.7485604237336</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2003</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Comércio Varejista</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>9.260318640258181</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2004</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Comércio Varejista</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>9.243969978284628</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2005</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Comércio Varejista</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>12.4229915447218</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2006</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Comércio Varejista</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>21.8302396660661</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2007</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Comércio Varejista</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>-5.390035254898418</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2008</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Comércio Varejista</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>4.790490981714313</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2009</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Comércio Varejista</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>5.833801714606124</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Comércio Varejista</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>40.23847394962601</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Comércio Varejista</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>6.093562596982749</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>2012</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Comércio Varejista</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>7.177790751889357</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Comércio Varejista</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>-10.65382278598713</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Comércio Varejista</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>4.591953361346501</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Comércio Varejista</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>-18.54708236146879</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Comércio Varejista</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>-26.3160752343341</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Comércio Varejista</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>13.87703187409235</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Comércio Varejista</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>-4.022166462321241</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Comércio Varejista</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>3.410483932979158</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Comércio Varejista</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>-11.38271719823252</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Comércio Varejista</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>11.57220269500947</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Comércio Varejista</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>0.6054502885806334</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Comércio Varejista</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>16.92213331191041</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Comércio Varejista</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>12.44480898776557</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>2003</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Energia Elétrica Terciário</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>131.8024677998103</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>2004</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Energia Elétrica Terciário</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>1149.83018981391</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>2005</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Energia Elétrica Terciário</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>29.38773176740701</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>2006</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Energia Elétrica Terciário</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>94.8564940707008</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>2007</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Energia Elétrica Terciário</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>-97.09828426812886</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>2008</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Energia Elétrica Terciário</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>74.49683032010013</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>2009</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Energia Elétrica Terciário</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>-50.39342222046588</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Energia Elétrica Terciário</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>-99.97494500168841</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Energia Elétrica Terciário</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>1225902.534859455</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>2012</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Energia Elétrica Terciário</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>23.01846749052139</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Energia Elétrica Terciário</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>7.779643638425759</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Energia Elétrica Terciário</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>-8.72602528661618</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Energia Elétrica Terciário</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>10.40379908189855</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Energia Elétrica Terciário</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>-1.725667640327255</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Energia Elétrica Terciário</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>5.563359356411235</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Energia Elétrica Terciário</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>2.668171636763117</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Energia Elétrica Terciário</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>-12.05864905952718</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Energia Elétrica Terciário</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>12.12107146446049</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Energia Elétrica Terciário</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>-13.51522342229043</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Energia Elétrica Terciário</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>47.23928057947646</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Energia Elétrica Terciário</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>-3.47692847917882</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Energia Elétrica Terciário</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>-7.803192694968065</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>2003</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Outros ICMS</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>-37.66244667221241</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>2004</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Outros ICMS</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>409.7645247992592</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>2005</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Outros ICMS</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>28.17365492004693</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>2006</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Outros ICMS</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>-74.12778066924963</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>2007</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Outros ICMS</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>0.7662902477756139</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>2008</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Outros ICMS</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>-2.120246717027319</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>2009</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Outros ICMS</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>-22.71633655119965</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Outros ICMS</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>2.523154864674759</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Outros ICMS</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>70.0009947072753</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>2012</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Outros ICMS</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>-32.52372777059808</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Outros ICMS</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>3.026942117271259</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Outros ICMS</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>-20.4204743150666</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Outros ICMS</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>41.40159856966908</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Outros ICMS</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>51.00719023501552</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Outros ICMS</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>-0.1927224985693421</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Outros ICMS</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>-1.590664066941594</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Outros ICMS</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>-11.614068249684</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Outros ICMS</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>5.802694839625544</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Outros ICMS</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>12.99268658293122</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Outros ICMS</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>28.88066936915001</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Outros ICMS</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>6.116853675499123</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Outros ICMS</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>2.544367989618546</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>2003</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Petróleo-Combustível-Lubrificantes Terciário</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>-7.914378544538792</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>2004</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Petróleo-Combustível-Lubrificantes Terciário</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>327.3232940559216</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>2005</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Petróleo-Combustível-Lubrificantes Terciário</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>-99.91747697704348</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>2006</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Petróleo-Combustível-Lubrificantes Terciário</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>118310.0692093257</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>2007</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Petróleo-Combustível-Lubrificantes Terciário</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>-8.782442778613497</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>2008</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Petróleo-Combustível-Lubrificantes Terciário</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>13.16958957100756</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>2009</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Petróleo-Combustível-Lubrificantes Terciário</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>26.11477971045923</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Petróleo-Combustível-Lubrificantes Terciário</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>-0.5712316456424005</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Petróleo-Combustível-Lubrificantes Terciário</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>7.859030879309326</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>2012</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Petróleo-Combustível-Lubrificantes Terciário</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>-17.80997563915002</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Petróleo-Combustível-Lubrificantes Terciário</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>-20.55398793281528</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Petróleo-Combustível-Lubrificantes Terciário</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>-15.60997909609707</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Petróleo-Combustível-Lubrificantes Terciário</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>22.26282699996815</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Petróleo-Combustível-Lubrificantes Terciário</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>14.70836313576183</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Petróleo-Combustível-Lubrificantes Terciário</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>-20.12876314744266</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Petróleo-Combustível-Lubrificantes Terciário</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>39.00440514765984</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Petróleo-Combustível-Lubrificantes Terciário</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>3.221066388097182</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Petróleo-Combustível-Lubrificantes Terciário</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>19.11381548536231</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Petróleo-Combustível-Lubrificantes Terciário</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>40.01175355248179</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Petróleo-Combustível-Lubrificantes Terciário</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>-25.59418319204174</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Petróleo-Combustível-Lubrificantes Terciário</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>-13.4601991922683</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Petróleo-Combustível-Lubrificantes Terciário</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>9.451625673490827</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>2003</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Serviços de Comunicação</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>2.387327248627735</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>2004</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Serviços de Comunicação</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>-71.815596323481</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>2005</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Serviços de Comunicação</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>-68.35630325798797</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>2006</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Serviços de Comunicação</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>1232.181960323569</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>2007</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Serviços de Comunicação</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>21.96373134498373</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>2008</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Serviços de Comunicação</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>6.93801721693732</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>2009</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Serviços de Comunicação</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>-3.043147211352071</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Serviços de Comunicação</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>2.5458731551389</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Serviços de Comunicação</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>2.197952568216266</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>2012</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Serviços de Comunicação</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>5.818261228541655</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Serviços de Comunicação</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>1.100105959138831</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Serviços de Comunicação</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>-8.730249300975835</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Serviços de Comunicação</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>-9.444250027787893</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Serviços de Comunicação</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>1.593305199147466</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Serviços de Comunicação</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>-4.193846944856006</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Serviços de Comunicação</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>-17.3657044313277</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Serviços de Comunicação</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>-11.89485785236362</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Serviços de Comunicação</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>-3.847311534667341</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Serviços de Comunicação</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>-6.756335159050209</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Serviços de Comunicação</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>-20.42544715262117</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Serviços de Comunicação</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>-18.68768855676874</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Serviços de Comunicação</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>-5.283316078548006</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>2003</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Serviços de Transporte</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>14.95408394047306</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>2004</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Serviços de Transporte</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>19.82224273263975</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>2005</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Serviços de Transporte</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>145.51136896807</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>2006</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Serviços de Transporte</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>-29.13458689137197</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>2007</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Serviços de Transporte</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>-19.0259040571742</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>2008</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Serviços de Transporte</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>12.53670027258085</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>2009</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Serviços de Transporte</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>29.1893035820809</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Serviços de Transporte</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>1.042904233041564</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Serviços de Transporte</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>-0.8341574343157854</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>2012</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Serviços de Transporte</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>-1.893474005054374</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Serviços de Transporte</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>-5.052178173926714</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Serviços de Transporte</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>-0.69087327871169</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Serviços de Transporte</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>-6.744644356555507</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Serviços de Transporte</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>-0.8635748705418722</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Serviços de Transporte</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>5.074170390703658</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Serviços de Transporte</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>18.72379865127238</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Serviços de Transporte</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>9.262331720820228</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Serviços de Transporte</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>3.578014800329066</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Serviços de Transporte</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>14.60585983641765</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Serviços de Transporte</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>7.682246714761898</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Serviços de Transporte</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>7.274015412691481</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Serviços de Transporte</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
+        <v>2.562618974493724</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>1998</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>14.99322294946812</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>1999</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>-7.613620549204036</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
+        <v>19.41490972552349</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>2001</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
+        <v>13.73406975895726</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>2002</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
+        <v>23.81540768898522</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>2003</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C161" t="n">
+        <v>-8.874969700983026</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>2004</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C162" t="n">
+        <v>46.65427407101528</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>2005</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C163" t="n">
+        <v>23.74514865926998</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>2006</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C164" t="n">
+        <v>-16.69518831061295</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>2007</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C165" t="n">
+        <v>3.666015728806715</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>2008</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C166" t="n">
+        <v>5.650726132119988</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>2009</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C167" t="n">
+        <v>1.875441446081738</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C168" t="n">
+        <v>20.23821660253087</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C169" t="n">
+        <v>10.73301728522154</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>2012</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C170" t="n">
+        <v>-0.5567979816896385</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C171" t="n">
+        <v>-2.939801951887089</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C172" t="n">
+        <v>-1.467647370388936</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C173" t="n">
+        <v>-8.453400143595214</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C174" t="n">
+        <v>-2.053400114964044</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C175" t="n">
+        <v>4.834238007145442</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C176" t="n">
+        <v>-2.700115681586113</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C177" t="n">
+        <v>-1.972673828975036</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C178" t="n">
+        <v>1.065229452235439</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C179" t="n">
+        <v>10.98369122600509</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C180" t="n">
+        <v>6.839749313098742</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C181" t="n">
+        <v>16.00247948326956</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C182" t="n">
+        <v>10.24109830306717</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
